--- a/public/backend/file/student-admission.xlsx
+++ b/public/backend/file/student-admission.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Section Wise Student Details" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Roll</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
   </si>
   <si>
     <t>Blood Group</t>
@@ -465,10 +462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Section Wise Student Details"/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.3984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -476,7 +473,7 @@
     <col min="7" max="7" width="24.3984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -498,7 +495,7 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -516,57 +513,58 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
@@ -578,7 +576,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 D6:D504">
       <formula1>"Islam,Hinduism,Buddist,Christian,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I528 I2:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H528 H2:H4">
       <formula1>"A+,A-,B+,B-,O+,O-,AB+,AB-"</formula1>
     </dataValidation>
   </dataValidations>
